--- a/ResultadoEleicoesDistritos/BEJA_CASTRO VERDE.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_CASTRO VERDE.xlsx
@@ -597,64 +597,64 @@
         <v>1808</v>
       </c>
       <c r="H2" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J2" t="n">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T2" t="n">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="U2" t="n">
         <v>6</v>
       </c>
       <c r="V2" t="n">
-        <v>1157</v>
+        <v>1126</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
